--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC.xlsx
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -618,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -642,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -650,7 +650,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -722,7 +722,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -746,7 +746,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -754,7 +754,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -762,7 +762,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -794,7 +794,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -842,7 +842,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -850,7 +850,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -866,7 +866,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -874,7 +874,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -882,7 +882,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -890,7 +890,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -898,7 +898,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -906,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -922,7 +922,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -938,7 +938,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -946,7 +946,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -954,7 +954,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -970,7 +970,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -986,7 +986,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
